--- a/data/invalid_login.xlsx
+++ b/data/invalid_login.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SauceDemoLoginErrors" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckoutErrors" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -498,4 +499,56 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="C1" t="str">
+        <v>zipPostalCode</v>
+      </c>
+      <c r="D1" t="str">
+        <v>errorMessage</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="str">
+        <v>Error: First Name is required</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Error: Last Name is required</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Error: Postal Code is required</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+  </ignoredErrors>
+</worksheet>
 </file>